--- a/微信自动发送数据/杏花岭/excelfiles/杏花岭最新小时推送数据.xlsx
+++ b/微信自动发送数据/杏花岭/excelfiles/杏花岭最新小时推送数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\pycharm\微信自动发送数据\杏花岭\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E32069-C6D7-4E16-8423-901B395CAD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567DDA31-9242-4116-A238-58284422B856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1780" windowWidth="17620" windowHeight="8140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="17620" windowHeight="8140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <v>1.2</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
